--- a/probe_design_files/probes.xlsx
+++ b/probe_design_files/probes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,25 +466,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ndnf</t>
+          <t>tfrc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NM_172399.3</t>
+          <t>NM_011638.4</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>493</v>
+        <v>165</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>GGTAACAGGAGGCACAGCAATAATGTTATCTT</t>
+          <t>CCAAACAAGTTAGAGAATGCTAATGTTATCTT</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/5Phos/ACATTAACACCAGTAGAACAGCTCCAatttaTACAATCTAACTATTATAAattaAAGATA</t>
+          <t>/5Phos/ACATTATGATCTGGCTTGATCCATCAatttaTATTATTATATTTACCCTAattaAAGATA</t>
         </is>
       </c>
     </row>
@@ -494,25 +494,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ndnf</t>
+          <t>tfrc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NM_172399.3</t>
+          <t>NM_011638.4</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>611</v>
+        <v>227</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>GCTGACTTCAGCTCCATCTGTAATGTTATCTT</t>
+          <t>GACTGTTATCTCCATCTACTTAATGTTATCTT</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/5Phos/ACATTAGAATCACAGATGAATCGTGAatttaTACAATCTAACTATTATAAattaAAGATA</t>
+          <t>/5Phos/ACATTATGCCGAGCAAGGCTAAACCGatttaTATTATTATATTTACCCTAattaAAGATA</t>
         </is>
       </c>
     </row>
@@ -522,25 +522,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ndnf</t>
+          <t>tfrc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NM_172399.3</t>
+          <t>NM_011638.4</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>663</v>
+        <v>283</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CTTCCTCAACCATGAAGAAATAATGTTATCTT</t>
+          <t>CTTCATGTTATTGTCGGCATTAATGTTATCTT</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/5Phos/ACATTATACCTTCTAGGTGTATCTCTatttaTACAATCTAACTATTATAAattaAAGATA</t>
+          <t>/5Phos/ACATTATTTCTTCTTCATCTGCAGCCatttaTATTATTATATTTACCCTAattaAAGATA</t>
         </is>
       </c>
     </row>
@@ -550,25 +550,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ndnf</t>
+          <t>tfrc</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NM_172399.3</t>
+          <t>NM_011638.4</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>711</v>
+        <v>339</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CCAAAGGTGCATCGCAAGGTTAATGTTATCTT</t>
+          <t>GCAATAGCTGCAAAGCAGAGTAATGTTATCTT</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/5Phos/ACATTAGTCACTGTGACTGACAGTGGatttaTACAATCTAACTATTATAAattaAAGATA</t>
+          <t>/5Phos/ACATTATCTTCCATTAAACCTCTTGGatttaTATTATTATATTTACCCTAattaAAGATA</t>
         </is>
       </c>
     </row>
@@ -578,25 +578,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ndnf</t>
+          <t>tfrc</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NM_172399.3</t>
+          <t>NM_011638.4</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>764</v>
+        <v>402</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>TGATCCATCTGCACTGGACCTAATGTTATCTT</t>
+          <t>TCTACACGCTTACAATAGCCTAATGTTATCTT</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/5Phos/ACATTACCTCATGCAGCTCCTGAAGGatttaTACAATCTAACTATTATAAattaAAGATA</t>
+          <t>/5Phos/ACATTACAGGTAGCCACTCATGAATCatttaTATTATTATATTTACCCTAattaAAGATA</t>
         </is>
       </c>
     </row>
@@ -606,25 +606,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ndnf</t>
+          <t>tfrc</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NM_172399.3</t>
+          <t>NM_011638.4</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>810</v>
+        <v>446</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CATCAGTCATCTGCTGCTTCTAATGTTATCTT</t>
+          <t>CTGTCTCCTCCGTTTCAGCCTAATGTTATCTT</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/5Phos/ACATTATGCTGGTCAAGTAGTTCTGGatttaTACAATCTAACTATTATAAattaAAGATA</t>
+          <t>/5Phos/ACATTAAGTTTCACACACTCCTCTTTatttaTATTATTATATTTACCCTAattaAAGATA</t>
         </is>
       </c>
     </row>
@@ -634,25 +634,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ndnf</t>
+          <t>tfrc</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NM_172399.3</t>
+          <t>NM_011638.4</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>915</v>
+        <v>488</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>TCTCTGTTGAAAGAAGCTCCTAATGTTATCTT</t>
+          <t>ATGATGTAGGAACATCCTCTTAATGTTATCTT</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/5Phos/ACATTAAACTGATACAAACCAGATGGatttaTACAATCTAACTATTATAAattaAAGATA</t>
+          <t>/5Phos/ACATTAGTTTCCATGGTTTCTGACTTatttaTATTATTATATTTACCCTAattaAAGATA</t>
         </is>
       </c>
     </row>
@@ -662,25 +662,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ndnf</t>
+          <t>tfrc</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NM_172399.3</t>
+          <t>NM_011638.4</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>966</v>
+        <v>552</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>GCTGGTCAGATTCTGGTGTGTAATGTTATCTT</t>
+          <t>GCAAACTCTATGGAGTTCAATAATGTTATCTT</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/5Phos/ACATTAGTGGTGGCATATACTTTGAAatttaTACAATCTAACTATTATAAattaAAGATA</t>
+          <t>/5Phos/ACATTACTTCTCTGACAACAGTGTTTatttaTATTATTATATTTACCCTAattaAAGATA</t>
         </is>
       </c>
     </row>
@@ -690,25 +690,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ndnf</t>
+          <t>tfrc</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NM_172399.3</t>
+          <t>NM_011638.4</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1030</v>
+        <v>594</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>GTGACTGTGGTACGTCCAAATAATGTTATCTT</t>
+          <t>CGAGGAGTGTATGTATTCTGTAATGTTATCTT</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/5Phos/ACATTAGGAGGTCACATCAACTCTGGatttaTACAATCTAACTATTATAAattaAAGATA</t>
+          <t>/5Phos/ACATTAGCTCAGCTGCTTGATGGTGTatttaTATTATTATATTTACCCTAattaAAGATA</t>
         </is>
       </c>
     </row>
@@ -718,25 +718,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ndnf</t>
+          <t>tfrc</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NM_172399.3</t>
+          <t>NM_011638.4</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1095</v>
+        <v>697</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>TGACCACACAGTACTCTATGTAATGTTATCTT</t>
+          <t>CTTCACATAGTGTTCATCTCTAATGTTATCTT</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/5Phos/ACATTAGGTTGTTTCAATATAGAGGCatttaTACAATCTAACTATTATAAattaAAGATA</t>
+          <t>/5Phos/ACATTAGCCAGACTTTGCTGAATTTAatttaTATTATTATATTTACCCTAattaAAGATA</t>
         </is>
       </c>
     </row>
@@ -746,25 +746,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ndnf</t>
+          <t>tfrc</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NM_172399.3</t>
+          <t>NM_011638.4</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1159</v>
+        <v>764</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>GCATCATCTGCATTCATCTTTAATGTTATCTT</t>
+          <t>GGTCTAAGTTACCATTTGACTAATGTTATCTT</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/5Phos/ACATTATGTTTCTGCTGCACAGAGGCatttaTACAATCTAACTATTATAAattaAAGATA</t>
+          <t>/5Phos/ACATTATGCACTATGGTCACCATGTTatttaTATTATTATATTTACCCTAattaAAGATA</t>
         </is>
       </c>
     </row>
@@ -774,25 +774,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ndnf</t>
+          <t>tfrc</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NM_172399.3</t>
+          <t>NM_011638.4</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1421</v>
+        <v>821</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CATGTTGGTGTTGGTATTGATAATGTTATCTT</t>
+          <t>TACCAGAAACTTCTGTAGGTTAATGTTATCTT</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/5Phos/ACATTACCATGAAGACATCAAAGTAGatttaTACAATCTAACTATTATAAattaAAGATA</t>
+          <t>/5Phos/ACATTATTACTGAATGCCACATAACCatttaTATTATTATATTTACCCTAattaAAGATA</t>
         </is>
       </c>
     </row>
@@ -802,25 +802,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ndnf</t>
+          <t>tfrc</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NM_172399.3</t>
+          <t>NM_011638.4</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1486</v>
+        <v>1035</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>AGTTCCACTGTCTTCTGTTTTAATGTTATCTT</t>
+          <t>TGAGCATGTCCAAAGAGTGCTAATGTTATCTT</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/5Phos/ACATTATGCCTCCTCCTTGGTCCTGAatttaTACAATCTAACTATTATAAattaAAGATA</t>
+          <t>/5Phos/ACATTAAAGGTCTGCCTCAACAACGGatttaTATTATTATATTTACCCTAattaAAGATA</t>
         </is>
       </c>
     </row>
@@ -830,25 +830,25 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ndnf</t>
+          <t>tfrc</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NM_172399.3</t>
+          <t>NM_011638.4</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1624</v>
+        <v>1077</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CTTCTCACTTGGACTTGAACTAATGTTATCTT</t>
+          <t>AAAGAAGGAAAGCCAGGTGTTAATGTTATCTT</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/5Phos/ACATTAGGCATCCATACAAGAATGAAatttaTACAATCTAACTATTATAAattaAAGATA</t>
+          <t>/5Phos/ACATTAGTATGGATCACCAGTTCCTAatttaTATTATTATATTTACCCTAattaAAGATA</t>
         </is>
       </c>
     </row>
@@ -858,25 +858,25 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ndnf</t>
+          <t>tfrc</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NM_172399.3</t>
+          <t>NM_011638.4</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1669</v>
+        <v>1132</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>TGCCGAATGCCTTCCACATTTAATGTTATCTT</t>
+          <t>CACAGGTATATTAGGCAACCTAATGTTATCTT</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/5Phos/ACATTACTGTGACAGAAGCAGCCTCCatttaTACAATCTAACTATTATAAattaAAGATA</t>
+          <t>/5Phos/ACATTACTGATGACTGAGATGGCGGAatttaTATTATTATATTTACCCTAattaAAGATA</t>
         </is>
       </c>
     </row>
@@ -886,25 +886,25 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ndnf</t>
+          <t>tfrc</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NM_172399.3</t>
+          <t>NM_011638.4</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1739</v>
+        <v>1212</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>TGATGCTCCTTTCCTGTTGCTAATGTTATCTT</t>
+          <t>GAATCTATGTTCCATCTAGCTAATGTTATCTT</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/5Phos/ACATTACTTTCAGTCGAATGAGGTATatttaTACAATCTAACTATTATAAattaAAGATA</t>
+          <t>/5Phos/ACATTAAGGACAGCTTCCTTCCATTTatttaTATTATTATATTTACCCTAattaAAGATA</t>
         </is>
       </c>
     </row>
@@ -914,25 +914,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ndnf</t>
+          <t>tfrc</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NM_172399.3</t>
+          <t>NM_011638.4</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1857</v>
+        <v>1348</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ATGCCACCGTAACTGAAGAGTAATGTTATCTT</t>
+          <t>TCCTACTACAACATAACGGTTAATGTTATCTT</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/5Phos/ACATTACAGGTACGTAGCTTGTCAAAatttaTACAATCTAACTATTATAAattaAAGATA</t>
+          <t>/5Phos/ACATTACTGGTTCCTCATAACCTTTAatttaTATTATTATATTTACCCTAattaAAGATA</t>
         </is>
       </c>
     </row>
@@ -942,25 +942,25 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ndnf</t>
+          <t>tfrc</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NM_172399.3</t>
+          <t>NM_011638.4</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1927</v>
+        <v>1416</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>TCTTCACTGTAGTTTCCATCTAATGTTATCTT</t>
+          <t>TTCAACAGAAGACCTGTTCCTAATGTTATCTT</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/5Phos/ACATTACACTTCCTTTCTGTAGATACatttaTACAATCTAACTATTATAAattaAAGATA</t>
+          <t>/5Phos/ACATTACACACTGGACTTCGCCGCAAatttaTATTATTATATTTACCCTAattaAAGATA</t>
         </is>
       </c>
     </row>
@@ -970,25 +970,25 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ndnf</t>
+          <t>tfrc</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NM_172399.3</t>
+          <t>NM_011638.4</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1985</v>
+        <v>1506</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>CTCTGATTTCTTTCTGGTGTTAATGTTATCTT</t>
+          <t>AAGTCGCCTGCAGTCCAGCTTAATGTTATCTT</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/5Phos/ACATTACTGGTCCTAGGCACTGGTTTatttaTACAATCTAACTATTATAAattaAAGATA</t>
+          <t>/5Phos/ACATTAGGCAAAGATTATACTTCTGCatttaTATTATTATATTTACCCTAattaAAGATA</t>
         </is>
       </c>
     </row>
@@ -998,25 +998,25 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ndnf</t>
+          <t>tfrc</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NM_172399.3</t>
+          <t>NM_011638.4</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2034</v>
+        <v>1557</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>TCACTGCTTTCTGCAGGTTTTAATGTTATCTT</t>
+          <t>TGCAAAGATGAAAGGTATCCTAATGTTATCTT</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/5Phos/ACATTATGGCTGTGGAAGTATTTGCAatttaTACAATCTAACTATTATAAattaAAGATA</t>
+          <t>/5Phos/ACATTACTCCAACCACTCAGTGGCACatttaTATTATTATATTTACCCTAattaAAGATA</t>
         </is>
       </c>
     </row>
@@ -1026,25 +1026,221 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ndnf</t>
+          <t>tfrc</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NM_172399.3</t>
+          <t>NM_011638.4</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2084</v>
+        <v>1629</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ATCCAGCAGGTAAGACTTCCTAATGTTATCTT</t>
+          <t>CTGGCAGAAACTTTGAAGTTTAATGTTATCTT</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/5Phos/ACATTACAGGCTGCAGATCTCTGATTatttaTACAATCTAACTATTATAAattaAAGATA</t>
+          <t>/5Phos/ACATTAACTAGTACCAAGGACAACTTatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>tfrc</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>NM_011638.4</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1761</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>GGATATGCAGCATTGTCAAATAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGGAAAGTTTCTCAACTTTGCatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>tfrc</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>NM_011638.4</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1852</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ATAGGTATCCAATCTAGTGCTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACCAAATAAGGATAGTCTGCAatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>tfrc</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>NM_011638.4</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1894</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>AACCATTTGGTTGAGCTGAGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGAACTTTCTGAGTCAATGCCatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>tfrc</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>NM_011638.4</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>2078</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>AGTCTCCACGAGCGGAATACTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAAGCCACTGTAGACTTAGACCatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>tfrc</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>NM_011638.4</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>2215</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>CTCTCTTGGAGATACATAGGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGCGACAGGAAGTGATACTCCatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>tfrc</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>NM_011638.4</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>2259</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>AGAGTGTGAGAGCCAGAGCCTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACCAGAAGATATGTCGGAAAGatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>tfrc</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>NM_011638.4</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>2360</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>GAATAGTCCAAGTAGCCAGGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGCCAACTGGTTTCTGAAGAGatttaTATTATTATATTTACCCTAattaAAGATA</t>
         </is>
       </c>
     </row>

--- a/probe_design_files/probes.xlsx
+++ b/probe_design_files/probes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,25 +466,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>tfrc</t>
+          <t>gapdh</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NM_011638.4</t>
+          <t>NM_001289726.1</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CCAAACAAGTTAGAGAATGCTAATGTTATCTT</t>
+          <t>CCAATACGGCCAAATCCGTTTAATGTTATCTT</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/5Phos/ACATTATGATCTGGCTTGATCCATCAatttaTATTATTATATTTACCCTAattaAAGATA</t>
+          <t>/5Phos/ACATTACACACCGACCTTCACCATTTatttaTATTATTATATTTACCCTAattaAAGATA</t>
         </is>
       </c>
     </row>
@@ -494,25 +494,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>tfrc</t>
+          <t>gapdh</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NM_011638.4</t>
+          <t>NM_001289726.1</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>227</v>
+        <v>146</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>GACTGTTATCTCCATCTACTTAATGTTATCTT</t>
+          <t>TGATGGCAACAATCTCCACTTAATGTTATCTT</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/5Phos/ACATTATGCCGAGCAAGGCTAAACCGatttaTATTATTATATTTACCCTAattaAAGATA</t>
+          <t>/5Phos/ACATTATTGCCACTGCAAATGGCAGCatttaTATTATTATATTTACCCTAattaAAGATA</t>
         </is>
       </c>
     </row>
@@ -522,25 +522,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>tfrc</t>
+          <t>gapdh</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NM_011638.4</t>
+          <t>NM_001289726.1</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CTTCATGTTATTGTCGGCATTAATGTTATCTT</t>
+          <t>CCGTGAGTGGAGTCATACTGTAATGTTATCTT</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/5Phos/ACATTATTTCTTCTTCATCTGCAGCCatttaTATTATTATATTTACCCTAattaAAGATA</t>
+          <t>/5Phos/ACATTAGAACATGTAGACCATGTAGTatttaTATTATTATATTTACCCTAattaAAGATA</t>
         </is>
       </c>
     </row>
@@ -550,25 +550,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>tfrc</t>
+          <t>gapdh</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NM_011638.4</t>
+          <t>NM_001289726.1</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>GCAATAGCTGCAAAGCAGAGTAATGTTATCTT</t>
+          <t>AGACACCAGTAGACTCCACGTAATGTTATCTT</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/5Phos/ACATTATCTTCCATTAAACCTCTTGGatttaTATTATTATATTTACCCTAattaAAGATA</t>
+          <t>/5Phos/ACATTAACATACTCAGCACCGGCCTCatttaTATTATTATATTTACCCTAattaAAGATA</t>
         </is>
       </c>
     </row>
@@ -578,25 +578,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>tfrc</t>
+          <t>gapdh</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NM_011638.4</t>
+          <t>NM_001289726.1</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>402</v>
+        <v>485</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>TCTACACGCTTACAATAGCCTAATGTTATCTT</t>
+          <t>CAATCTTGAGTGAGTTGTCATAATGTTATCTT</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/5Phos/ACATTACAGGTAGCCACTCATGAATCatttaTATTATTATATTTACCCTAattaAAGATA</t>
+          <t>/5Phos/ACATTATATTTCTCGTGGTTCACACCatttaTATTATTATATTTACCCTAattaAAGATA</t>
         </is>
       </c>
     </row>
@@ -606,25 +606,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>tfrc</t>
+          <t>gapdh</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NM_011638.4</t>
+          <t>NM_001289726.1</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>446</v>
+        <v>563</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CTGTCTCCTCCGTTTCAGCCTAATGTTATCTT</t>
+          <t>CTTCCACAATGCCAAAGTTGTAATGTTATCTT</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/5Phos/ACATTAAGTTTCACACACTCCTCTTTatttaTATTATTATATTTACCCTAattaAAGATA</t>
+          <t>/5Phos/ACATTATCATGGATGACCTTGGCCAGatttaTATTATTATATTTACCCTAattaAAGATA</t>
         </is>
       </c>
     </row>
@@ -634,25 +634,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>tfrc</t>
+          <t>gapdh</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NM_011638.4</t>
+          <t>NM_001289726.1</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>488</v>
+        <v>637</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ATGATGTAGGAACATCCTCTTAATGTTATCTT</t>
+          <t>ACGCCACAGCTTTCCAGAGGTAATGTTATCTT</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/5Phos/ACATTAGTTTCCATGGTTTCTGACTTatttaTATTATTATATTTACCCTAattaAAGATA</t>
+          <t>/5Phos/ACATTAGGCCATCCACAGTCTTCTGGatttaTATTATTATATTTACCCTAattaAAGATA</t>
         </is>
       </c>
     </row>
@@ -662,25 +662,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>tfrc</t>
+          <t>gapdh</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NM_011638.4</t>
+          <t>NM_001289726.1</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>552</v>
+        <v>799</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>GCAAACTCTATGGAGTTCAATAATGTTATCTT</t>
+          <t>TTTCTCCAGGCGGCACGTCATAATGTTATCTT</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/5Phos/ACATTACTTCTCTGACAACAGTGTTTatttaTATTATTATATTTACCCTAattaAAGATA</t>
+          <t>/5Phos/ACATTAGATCCACGACGGACACATTGatttaTATTATTATATTTACCCTAattaAAGATA</t>
         </is>
       </c>
     </row>
@@ -690,25 +690,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>tfrc</t>
+          <t>gapdh</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NM_011638.4</t>
+          <t>NM_001289726.1</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>594</v>
+        <v>908</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CGAGGAGTGTATGTATTCTGTAATGTTATCTT</t>
+          <t>TGTTGAAGTCGCAGGAGACATAATGTTATCTT</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/5Phos/ACATTAGCTCAGCTGCTTGATGGTGTatttaTATTATTATATTTACCCTAattaAAGATA</t>
+          <t>/5Phos/ACATTAACCTGGTCCTCAGTGTAGCCatttaTATTATTATATTTACCCTAattaAAGATA</t>
         </is>
       </c>
     </row>
@@ -718,529 +718,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>tfrc</t>
+          <t>gapdh</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NM_011638.4</t>
+          <t>NM_001289726.1</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>697</v>
+        <v>1035</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CTTCACATAGTGTTCATCTCTAATGTTATCTT</t>
+          <t>TAGGCCATGAGGTCCACCACTAATGTTATCTT</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/5Phos/ACATTAGCCAGACTTTGCTGAATTTAatttaTATTATTATATTTACCCTAattaAAGATA</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>tfrc</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>NM_011638.4</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>764</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>GGTCTAAGTTACCATTTGACTAATGTTATCTT</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>/5Phos/ACATTATGCACTATGGTCACCATGTTatttaTATTATTATATTTACCCTAattaAAGATA</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>tfrc</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>NM_011638.4</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>821</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>TACCAGAAACTTCTGTAGGTTAATGTTATCTT</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>/5Phos/ACATTATTACTGAATGCCACATAACCatttaTATTATTATATTTACCCTAattaAAGATA</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>tfrc</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>NM_011638.4</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>1035</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>TGAGCATGTCCAAAGAGTGCTAATGTTATCTT</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>/5Phos/ACATTAAAGGTCTGCCTCAACAACGGatttaTATTATTATATTTACCCTAattaAAGATA</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>tfrc</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>NM_011638.4</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>1077</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>AAAGAAGGAAAGCCAGGTGTTAATGTTATCTT</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>/5Phos/ACATTAGTATGGATCACCAGTTCCTAatttaTATTATTATATTTACCCTAattaAAGATA</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>tfrc</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>NM_011638.4</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>1132</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>CACAGGTATATTAGGCAACCTAATGTTATCTT</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>/5Phos/ACATTACTGATGACTGAGATGGCGGAatttaTATTATTATATTTACCCTAattaAAGATA</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>tfrc</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>NM_011638.4</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>1212</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>GAATCTATGTTCCATCTAGCTAATGTTATCTT</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>/5Phos/ACATTAAGGACAGCTTCCTTCCATTTatttaTATTATTATATTTACCCTAattaAAGATA</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>tfrc</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>NM_011638.4</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>1348</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>TCCTACTACAACATAACGGTTAATGTTATCTT</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>/5Phos/ACATTACTGGTTCCTCATAACCTTTAatttaTATTATTATATTTACCCTAattaAAGATA</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>tfrc</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>NM_011638.4</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>1416</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>TTCAACAGAAGACCTGTTCCTAATGTTATCTT</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>/5Phos/ACATTACACACTGGACTTCGCCGCAAatttaTATTATTATATTTACCCTAattaAAGATA</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>tfrc</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>NM_011638.4</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>1506</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>AAGTCGCCTGCAGTCCAGCTTAATGTTATCTT</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>/5Phos/ACATTAGGCAAAGATTATACTTCTGCatttaTATTATTATATTTACCCTAattaAAGATA</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>tfrc</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>NM_011638.4</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>1557</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>TGCAAAGATGAAAGGTATCCTAATGTTATCTT</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>/5Phos/ACATTACTCCAACCACTCAGTGGCACatttaTATTATTATATTTACCCTAattaAAGATA</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>tfrc</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>NM_011638.4</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>1629</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>CTGGCAGAAACTTTGAAGTTTAATGTTATCTT</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>/5Phos/ACATTAACTAGTACCAAGGACAACTTatttaTATTATTATATTTACCCTAattaAAGATA</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>tfrc</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>NM_011638.4</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>1761</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>GGATATGCAGCATTGTCAAATAATGTTATCTT</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>/5Phos/ACATTAGGAAAGTTTCTCAACTTTGCatttaTATTATTATATTTACCCTAattaAAGATA</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>tfrc</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>NM_011638.4</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>1852</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>ATAGGTATCCAATCTAGTGCTAATGTTATCTT</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>/5Phos/ACATTACCAAATAAGGATAGTCTGCAatttaTATTATTATATTTACCCTAattaAAGATA</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>tfrc</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>NM_011638.4</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>1894</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>AACCATTTGGTTGAGCTGAGTAATGTTATCTT</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>/5Phos/ACATTAGAACTTTCTGAGTCAATGCCatttaTATTATTATATTTACCCTAattaAAGATA</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>tfrc</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>NM_011638.4</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>2078</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>AGTCTCCACGAGCGGAATACTAATGTTATCTT</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>/5Phos/ACATTAAGCCACTGTAGACTTAGACCatttaTATTATTATATTTACCCTAattaAAGATA</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>tfrc</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>NM_011638.4</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>2215</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>CTCTCTTGGAGATACATAGGTAATGTTATCTT</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>/5Phos/ACATTAGCGACAGGAAGTGATACTCCatttaTATTATTATATTTACCCTAattaAAGATA</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>tfrc</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>NM_011638.4</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>2259</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>AGAGTGTGAGAGCCAGAGCCTAATGTTATCTT</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>/5Phos/ACATTACCAGAAGATATGTCGGAAAGatttaTATTATTATATTTACCCTAattaAAGATA</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>tfrc</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>NM_011638.4</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>2360</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>GAATAGTCCAAGTAGCCAGGTAATGTTATCTT</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>/5Phos/ACATTAGCCAACTGGTTTCTGAAGAGatttaTATTATTATATTTACCCTAattaAAGATA</t>
+          <t>/5Phos/ACATTACCTGTTGCTGTAGCCGTATTatttaTATTATTATATTTACCCTAattaAAGATA</t>
         </is>
       </c>
     </row>

--- a/probe_design_files/probes.xlsx
+++ b/probe_design_files/probes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,25 +466,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>gapdh</t>
+          <t>polr2a</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NM_001289726.1</t>
+          <t>NM_001291068.1</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>90</v>
+        <v>452</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CCAATACGGCCAAATCCGTTTAATGTTATCTT</t>
+          <t>GACTCAGGACTCCGAACTGCTAATGTTATCTT</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/5Phos/ACATTACACACCGACCTTCACCATTTatttaTATTATTATATTTACCCTAattaAAGATA</t>
+          <t>/5Phos/ACATTAACTCTCTTGATGGTGCGCAGatttaTATTATTATATTTACCCTAattaAAGATA</t>
         </is>
       </c>
     </row>
@@ -494,25 +494,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>gapdh</t>
+          <t>polr2a</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NM_001289726.1</t>
+          <t>NM_001291068.1</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>146</v>
+        <v>617</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>TGATGGCAACAATCTCCACTTAATGTTATCTT</t>
+          <t>CAGGACACTCGGTCATGTTTTAATGTTATCTT</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/5Phos/ACATTATTGCCACTGCAAATGGCAGCatttaTATTATTATATTTACCCTAattaAAGATA</t>
+          <t>/5Phos/ACATTACCTGCACATGTTTGGCAGCGatttaTATTATTATATTTACCCTAattaAAGATA</t>
         </is>
       </c>
     </row>
@@ -522,25 +522,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>gapdh</t>
+          <t>polr2a</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NM_001289726.1</t>
+          <t>NM_001291068.1</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>207</v>
+        <v>682</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CCGTGAGTGGAGTCATACTGTAATGTTATCTT</t>
+          <t>CATTGTCTTCACCAGGAAGCTAATGTTATCTT</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/5Phos/ACATTAGAACATGTAGACCATGTAGTatttaTATTATTATATTTACCCTAattaAAGATA</t>
+          <t>/5Phos/ACATTACCACATGAAACACAGGTTTGatttaTATTATTATATTTACCCTAattaAAGATA</t>
         </is>
       </c>
     </row>
@@ -550,25 +550,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>gapdh</t>
+          <t>polr2a</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NM_001289726.1</t>
+          <t>NM_001291068.1</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>350</v>
+        <v>730</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>AGACACCAGTAGACTCCACGTAATGTTATCTT</t>
+          <t>ATCTACAAGCAGTTTGGAGCTAATGTTATCTT</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/5Phos/ACATTAACATACTCAGCACCGGCCTCatttaTATTATTATATTTACCCTAattaAAGATA</t>
+          <t>/5Phos/ACATTAAGAAGAAGCAGACACAGCGCatttaTATTATTATATTTACCCTAattaAAGATA</t>
         </is>
       </c>
     </row>
@@ -578,25 +578,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>gapdh</t>
+          <t>polr2a</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NM_001289726.1</t>
+          <t>NM_001291068.1</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>485</v>
+        <v>813</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CAATCTTGAGTGAGTTGTCATAATGTTATCTT</t>
+          <t>CACAGGTCATAGACATGCGTTAATGTTATCTT</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/5Phos/ACATTATATTTCTCGTGGTTCACACCatttaTATTATTATATTTACCCTAattaAAGATA</t>
+          <t>/5Phos/ACATTAAAGCCGTTTCTTTGGCTGCCatttaTATTATTATATTTACCCTAattaAAGATA</t>
         </is>
       </c>
     </row>
@@ -606,25 +606,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>gapdh</t>
+          <t>polr2a</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NM_001289726.1</t>
+          <t>NM_001291068.1</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>563</v>
+        <v>862</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CTTCCACAATGCCAAAGTTGTAATGTTATCTT</t>
+          <t>AAACTTGTTGTCCATCTCCTTAATGTTATCTT</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/5Phos/ACATTATCATGGATGACCTTGGCCAGatttaTATTATTATATTTACCCTAattaAAGATA</t>
+          <t>/5Phos/ACATTACTCCACCTTCACAGATGTTTatttaTATTATTATATTTACCCTAattaAAGATA</t>
         </is>
       </c>
     </row>
@@ -634,25 +634,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>gapdh</t>
+          <t>polr2a</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NM_001289726.1</t>
+          <t>NM_001291068.1</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>637</v>
+        <v>985</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ACGCCACAGCTTTCCAGAGGTAATGTTATCTT</t>
+          <t>AACATGCTTCCATTCAGCATTAATGTTATCTT</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/5Phos/ACATTAGGCCATCCACAGTCTTCTGGatttaTATTATTATATTTACCCTAattaAAGATA</t>
+          <t>/5Phos/ACATTAACAACTCTAGGCCAGAGCGCatttaTATTATTATATTTACCCTAattaAAGATA</t>
         </is>
       </c>
     </row>
@@ -662,25 +662,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>gapdh</t>
+          <t>polr2a</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NM_001289726.1</t>
+          <t>NM_001291068.1</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>799</v>
+        <v>1061</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>TTTCTCCAGGCGGCACGTCATAATGTTATCTT</t>
+          <t>CATCTGAGATGCGTTTGAAGTAATGTTATCTT</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/5Phos/ACATTAGATCCACGACGGACACATTGatttaTATTATTATATTTACCCTAattaAAGATA</t>
+          <t>/5Phos/ACATTAATTTCATGCACTCGTTCTGGatttaTATTATTATATTTACCCTAattaAAGATA</t>
         </is>
       </c>
     </row>
@@ -690,25 +690,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>gapdh</t>
+          <t>polr2a</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NM_001289726.1</t>
+          <t>NM_001291068.1</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>908</v>
+        <v>1138</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>TGTTGAAGTCGCAGGAGACATAATGTTATCTT</t>
+          <t>AGGCACAGGCAACACTGTGATAATGTTATCTT</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/5Phos/ACATTAACCTGGTCCTCAGTGTAGCCatttaTATTATTATATTTACCCTAattaAAGATA</t>
+          <t>/5Phos/ACATTACAATCATCCACTCAGGCCGGatttaTATTATTATATTTACCCTAattaAAGATA</t>
         </is>
       </c>
     </row>
@@ -718,25 +718,1453 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>gapdh</t>
+          <t>polr2a</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NM_001289726.1</t>
+          <t>NM_001291068.1</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1035</v>
+        <v>1211</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>TAGGCCATGAGGTCCACCACTAATGTTATCTT</t>
+          <t>CCAGTTTGTGAGTCAGATCATAATGTTATCTT</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/5Phos/ACATTACCTGTTGCTGTAGCCGTATTatttaTATTATTATATTTACCCTAattaAAGATA</t>
+          <t>/5Phos/ACATTATCCTGGTTTCGAGCAGAACCatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1258</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ATTCTGCTCGTTCCGCCGCATAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGCTGATTGTTGATCTTCACAatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1331</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>CATTGTCCACCATGGTGGCCTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAACATGGAACTGGAGAAGTTTatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1552</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>GACAATCTCTGCAAAGGTCATAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATGTTGGCAGCAATGGAGCGGatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1614</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>CCTGGATACTGGCTGTTTCCTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACCTGCGTACTAATTCCTGAAatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1659</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>CGCAAGTCAATTCGATCGCCTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAATTATCGCGGATGATGTACTatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1717</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>GTGCCGTTCCACCTTATAGCTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACAGTCTGCAGATGAAGGTCAatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1854</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>TCTGCATTGTATGGAGTTGTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACACACTAAGATTCAACCGAAatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1900</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>TTCCAGAGACTGTGGCAGATTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGCAAATTCATCTCATCTCCAatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1946</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>CAATCATTCGAGGCACCATATAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGCCAACTCTTGGATCTCTGCatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>GTGAATTTGCGTACTGCCGTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGAGTGTGTCTTGCACAATACatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>2238</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>GGAGAGATGTGCTTGTAAGGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGCCACTATCTTCATCATCAGatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>2482</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>GTTCTGAATGTCCTGGTAAGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATCTTTGAATCTGCAATGGAGatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>2570</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>GCAATGTGTTTCCTGGAGTGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGGTTCTAGCTCATTGTTATGatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>2643</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>TTCTGTGCAGAGGAGCCAGTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATTTGTCTCGAGCATCATTGAatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>2735</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>CGACAACAGCAATGACCTGGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGAGATGTTGATCTTGGAACCatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>2808</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>TCCTTGATAAAGTGAGGAAGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAAGTCCGATGCTTGAATCCAAatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>2861</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>GACCAGCCAAGTATGAATTTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATCTACAAAGCCTCGGCTCTCatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>2933</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>CAGTCTTAACAGCCGTGTCATAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAATGAGACCTTCTCGTCCTCCatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>2983</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>CACCGACTCCATGGACTTTATAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATCAGCCTTCGCTGAATATACatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>3025</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>CTGGTTGATGGAGTTCCTCATAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACAGTTGCATCATATTTCACCatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>3103</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>AGGTTTAAGTGTAGCCAGATTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATCTGGAACTCAACACTCTCCatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>3251</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>CACGCATCCGTTCAAATTCCTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACGTTCCAGCTCATTCTGTATatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>3452</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>GGTCATCTCCATTCACAATTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAACCAACTTCTTGCTCAATTCatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>3494</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>TGAAGAGCAATGTGGCATTCTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATCCTGTGCCTGCCGACTTAGatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>3544</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>AAACTCCTCAGCCATGCGGCTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGAGAGCAGAGTGTGGATCTTatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>3599</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>TGAACTTGGACTCTATCTCCTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACCAAGCAGCCAGTCAAAGGCatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>3652</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>AGACTGAGCAGCCAGAGCTCTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACCACCATTTCTCCAGGATGGatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>3698</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>CATAGTGGAAAGTGTTCAGGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGTCATCTGAGTGGCAGGTTCatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>3747</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>TCCTTAAGTCGAGGCACACCTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACAGCGTCACATTCTTGGCAGatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>3792</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ACAGTGAGTGAAGGAGTCTTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATGGCTTCTTGGAAATGTTGAatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>3834</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>TTGGCTCTTTCAGCATCTCGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATGCAGATTGACCTAACAGGAatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>3877</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>CACCTTCCTCAATGTTGTATTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGTTCCAAGCGGCAAAGAATGatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>4046</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>GCTTCCGGTCAGTCATGTGCTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATTTCGGTCGAGCTCCACACGatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>4147</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>GATTCGAAGGACCAGCTTCTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACTGCATTATCATCGTTGAAGatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>4223</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>GGAAGACATCATCATCCATTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATTATCCACCACCTCTTCCTCatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>4307</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>GAGGTAAGTGCATGTACACCTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATTGCTGATCTGCTCGATACCatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>4399</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>CAGGCTCACACCATCCGTCTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACTAAGATCCATTCCTGCAGGatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>4470</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>GTGAAGATCTCCACAATATCTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAATTGGACGTGGTGCGCACAGatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>4517</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>ACAGTTCTCGCTCCAGAGCCTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATTCCGCACAGCCTCAATGCCatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>4593</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>CGGCATGTCATAGTGTCACATAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACAGGAGCGCCAAATGCCGATatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>4665</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>AAGGAGCATTTCATGAGCGGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATCCAGTGTCCTGGCGGTTGAatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>4707</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>CCATGTGCTGCTGCTTCCATTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAAAGGACATCCACCGTTTCCTatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>4800</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>GCATCAAGCAGGAGGTCAAATAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAACAGCCAGTACCAGCTGGAGatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>5161</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>TGATGTCGGTGAGTAGCTGGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGAGACATAGCACCACCTGGTatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>5259</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>GAGTAAGATGGAGAGGTTGGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGGAGTAGGAAGGTGAAGTAGatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>5385</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>GAGTAGCTAGGAGAGGTTGGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGGAATAGCTTGGAGAGGTGGatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>5428</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>AGAATAGCTAGGTGATGTTGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGAGAATAGCTTGGAGAGGTTatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>5583</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>GAAGTTGGTGAGTAGCTTGGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAAGAAGTTGGTGAGTAGCTGGatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>5835</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>GAGCTTGGTGTGTAGGTTGGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAAGACTGTGGTGTATATCGTGatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>5932</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>GGTGTACTCTGGTGAGCTGGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGACTGTAGGAAGGACTAGTTatttaTATTATTATATTTACCCTAattaAAGATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>polr2a</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>NM_001291068.1</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>6025</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>GGTGGTAGGTGAGTAAGTGGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGGCTGGTAGGAGAATACTTGatttaTATTATTATATTTACCCTAattaAAGATA</t>
         </is>
       </c>
     </row>

--- a/probe_design_files/probes.xlsx
+++ b/probe_design_files/probes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,30 +471,30 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sncg</t>
+          <t>foxp2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NM_011430.3</t>
+          <t>NM_053242.4</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>90</v>
+        <v>660</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CCTTCCTTGGCAATGGAGAATAATGTTATCTT</t>
+          <t>GAACTGTTGCTTATTGTCTCTAATGTTATCTT</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/5Phos/ACATTAGCCTTTCTTGAAGACGTCCAatttaTATATTAATACACTAATAAattaAAGATA</t>
+          <t>/5Phos/ACATTATGTCGCAGATTCCTGCATCAatttaTTACTATCTCAATAAATATattaAAGATA</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>(0, 10)</t>
+          <t>(0, 11)</t>
         </is>
       </c>
     </row>
@@ -504,30 +504,30 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sncg</t>
+          <t>foxp2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NM_011430.3</t>
+          <t>NM_053242.4</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>216</v>
+        <v>715</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>GCCACTGAGGTGACACTTTGTAATGTTATCTT</t>
+          <t>CCTGCTGCCAGCATCTAATTTAATGTTATCTT</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/5Phos/ACATTATACCACGTTCTCCTTGGTTTatttaTATATTAATACACTAATAAattaAAGATA</t>
+          <t>/5Phos/ACATTAGGCTGCTTAAAGTGCTCATTatttaTTACTATCTCAATAAATATattaAAGATA</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>(6, 11)</t>
+          <t>(2, 7)</t>
         </is>
       </c>
     </row>
@@ -537,30 +537,30 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sncg</t>
+          <t>foxp2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NM_011430.3</t>
+          <t>NM_053242.4</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>258</v>
+        <v>761</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ACAGCTTCACTCACGGCATTTAATGTTATCTT</t>
+          <t>CCACTGTGCTTACTTCAGAGTAATGTTATCTT</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/5Phos/ACATTAGGCCTGCTCCTTGGTCTTCTatttaTATATTAATACACTAATAAattaAAGATA</t>
+          <t>/5Phos/ACATTACTGGTGTCACCACTTGATCTatttaTTACTATCTCAATAAATATattaAAGATA</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>(2, 12)</t>
+          <t>(3, 10)</t>
         </is>
       </c>
     </row>
@@ -570,30 +570,30 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sncg</t>
+          <t>foxp2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NM_011430.3</t>
+          <t>NM_053242.4</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>300</v>
+        <v>764</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>TCCTCCACGGTCTTGTTGGCTAATGTTATCTT</t>
+          <t>GCTCCACTGTGCTTACTTCATAATGTTATCTT</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/5Phos/ACATTACACTGTGTTGACGCTGCTGAatttaTATATTAATACACTAATAAattaAAGATA</t>
+          <t>/5Phos/ACATTAGAGCTGGTGTCACCACTTGAatttaTTACTATCTCAATAAATATattaAAGATA</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>(0, 7)</t>
+          <t>(0, 10)</t>
         </is>
       </c>
     </row>
@@ -603,30 +603,7323 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sncg</t>
+          <t>foxp2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NM_011430.3</t>
+          <t>NM_053242.4</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>395</v>
+        <v>765</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CATTCTCCTCTTGCTCTTTGTAATGTTATCTT</t>
+          <t>AGCTCCACTGTGCTTACTTCTAATGTTATCTT</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/5Phos/ACATTAGCTTCTTGGTCCTGTGCAGGatttaTATATTAATACACTAATAAattaAAGATA</t>
+          <t>/5Phos/ACATTAAGAGCTGGTGTCACCACTTGatttaTTACTATCTCAATAAATATattaAAGATA</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>(4, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>766</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CAGCTCCACTGTGCTTACTTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACAGAGCTGGTGTCACCACTTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>(4, 14)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>767</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>GCAGCTCCACTGTGCTTACTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATCAGAGCTGGTGTCACCACTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>(3, 11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>768</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>AGCAGCTCCACTGTGCTTACTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATTCAGAGCTGGTGTCACCACatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>(3, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>769</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>CAGCAGCTCCACTGTGCTTATAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACTTCAGAGCTGGTGTCACCAatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>(4, 11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>770</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>GCAGCAGCTCCACTGTGCTTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAACTTCAGAGCTGGTGTCACCatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>(6, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>771</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>TGCAGCAGCTCCACTGTGCTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATACTTCAGAGCTGGTGTCACatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>(6, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>773</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>GATGCAGCAGCTCCACTGTGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACTTACTTCAGAGCTGGTGTCatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>(2, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>775</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>CAGATGCAGCAGCTCCACTGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATGCTTACTTCAGAGCTGGTGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>(2, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>776</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>GCAGATGCAGCAGCTCCACTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGTGCTTACTTCAGAGCTGGTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>(2, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>777</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>TGCAGATGCAGCAGCTCCACTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATGTGCTTACTTCAGAGCTGGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>(2, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>779</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>GTTGCAGATGCAGCAGCTCCTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAACTGTGCTTACTTCAGAGCTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>(2, 11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>780</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>TGTTGCAGATGCAGCAGCTCTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACACTGTGCTTACTTCAGAGCatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>(2, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>781</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>TTGTTGCAGATGCAGCAGCTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACCACTGTGCTTACTTCAGAGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>(2, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>791</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>GAGCCTGCTGTTGTTGCAGATAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATGCAGCAGCTCCACTGTGCTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>(4, 14)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>793</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>GAGAGCCTGCTGTTGTTGCATAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGATGCAGCAGCTCCACTGTGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>(2, 9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>796</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>CTGGAGAGCCTGCTGTTGTTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGCAGATGCAGCAGCTCCACTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>(4, 9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>808</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>TTGTCTTGCTGCCTGGAGAGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACCTGCTGTTGTTGCAGATGCatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>(0, 11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>810</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>AGTTGTCTTGCTGCCTGGAGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAAGCCTGCTGTTGTTGCAGATatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>(0, 13)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>812</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>AAAGTTGTCTTGCTGCCTGGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAAGAGCCTGCTGTTGTTGCAGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>(3, 11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>856</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>ACTGCTCTTAGGAGATTTCATAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAATCCACTGGTTTGCTGCTGTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>(3, 9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>859</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>CTCACTGCTCTTAGGAGATTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATCAATCCACTGGTTTGCTGCatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>(3, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>860</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>TCTCACTGCTCTTAGGAGATTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATTCAATCCACTGGTTTGCTGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>(3, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>868</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>CCTCTGCTTCTCACTGCTCTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATAGGAGATTTCAATCCACTGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>(0, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>870</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>GGCCTCTGCTTCTCACTGCTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACTTAGGAGATTTCAATCCACatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>(2, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>873</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>AGTGGCCTCTGCTTCTCACTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGCTCTTAGGAGATTTCAATCatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>(2, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>875</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>GCAGTGGCCTCTGCTTCTCATAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACTGCTCTTAGGAGATTTCAAatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>(4, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>876</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>TGCAGTGGCCTCTGCTTCTCTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAACTGCTCTTAGGAGATTTCAatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>(4, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>877</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>CTGCAGTGGCCTCTGCTTCTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACACTGCTCTTAGGAGATTTCatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>(4, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>879</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ACCTGCAGTGGCCTCTGCTTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACTCACTGCTCTTAGGAGATTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>(4, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>972</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>AGCTGCTGAGGAGACAGGACTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACTGCTGCTGAAGAATCTGCTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>(3, 12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>976</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>CTGGAGCTGCTGAGGAGACATAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGGACCTGCTGCTGAAGAATCatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>(0, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1020</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>TGTTGCTGCTGCAACATCACTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAAGCTTGCTGCTGCTGGAGGAatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>(5, 11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1022</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>GTTGTTGCTGCTGCAACATCTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAACAGCTTGCTGCTGCTGGAGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>(5, 11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1023</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>AGTTGTTGCTGCTGCAACATTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACACAGCTTGCTGCTGCTGGAatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>(5, 11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>TAGTTGTTGCTGCTGCAACATAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATCACAGCTTGCTGCTGCTGGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>(5, 11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1027</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>TTGTAGTTGTTGCTGCTGCATAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAACATCACAGCTTGCTGCTGCatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>(2, 11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1029</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>TCTTGTAGTTGTTGCTGCTGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACAACATCACAGCTTGCTGCTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>(0, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1031</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ACTCTTGTAGTTGTTGCTGCTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATGCAACATCACAGCTTGCTGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>(0, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>1032</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>AACTCTTGTAGTTGTTGCTGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACTGCAACATCACAGCTTGCTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>(4, 12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>1109</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>GTTGCTGCTGTTGCTGCTGCTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATGCTGTTGCTGCTGTTGCAAatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>(4, 12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>1115</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>GCTGCTGTTGCTGCTGTTGCTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATGCTGCTGCTGTTGCTGCTGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>(4, 12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>1116</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>TGCTGCTGTTGCTGCTGTTGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACTGCTGCTGCTGTTGCTGCTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>(4, 12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>1118</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>GCTGCTGCTGTTGCTGCTGTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATGCTGCTGCTGCTGTTGCTGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>(5, 11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>1125</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>TGCTGCTGCTGCTGCTGTTGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACTGCTGTTGCTGCTGCTGCTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>(4, 12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1129</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>TTGCTGCTGCTGCTGCTGCTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGTTGCTGCTGTTGCTGCTGCatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>(4, 11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>1131</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>TGTTGCTGCTGCTGCTGCTGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACTGTTGCTGCTGTTGCTGCTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>(4, 12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>1138</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>CTGCTGTTGTTGCTGCTGCTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGCTGCTGCTGTTGCTGCTGTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>(2, 13)</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>1140</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>TGCTGCTGTTGTTGCTGCTGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACTGCTGCTGCTGTTGCTGCTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>(4, 12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>1143</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>TGCTGCTGCTGTTGTTGCTGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACTGCTGCTGCTGCTGTTGCTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>(2, 12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>1145</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>GCTGCTGCTGCTGTTGTTGCTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATGCTGCTGCTGCTGCTGTTGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>(3, 11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>1152</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>TGTTGCTGCTGCTGCTGCTGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATTGTTGCTGCTGCTGCTGCTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>(4, 12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>1161</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>TGCTGTTGCTGTTGCTGCTGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACTGCTGCTGTTGTTGCTGCTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>(2, 12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>1163</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>GCTGCTGTTGCTGTTGCTGCTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATGCTGCTGCTGTTGTTGCTGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>(3, 9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>1169</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>GCTGCTGCTGCTGTTGCTGTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATGCTGCTGCTGCTGCTGTTGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>(4, 11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>1170</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>TGCTGCTGCTGCTGTTGCTGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATTGCTGCTGCTGCTGCTGTTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>(4, 11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>1171</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>TTGCTGCTGCTGCTGTTGCTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGTTGCTGCTGCTGCTGCTGTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>(4, 11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>1173</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>TGTTGCTGCTGCTGCTGTTGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACTGTTGCTGCTGCTGCTGCTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>(3, 12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>1175</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>GCTGTTGCTGCTGCTGCTGTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATGCTGTTGCTGCTGCTGCTGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>(4, 11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>1176</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>TGCTGTTGCTGCTGCTGCTGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATTGCTGTTGCTGCTGCTGCTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>(4, 12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>1179</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>TGCTGCTGTTGCTGCTGCTGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACTGTTGCTGTTGCTGCTGCTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>(4, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>1190</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>GTTGCTGTTGCTGCTGCTGTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATGCTGCTGCTGCTGTTGCTGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>(2, 11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>1191</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>TGTTGCTGTTGCTGCTGCTGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATTGCTGCTGCTGCTGTTGCTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>(2, 12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>1196</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>GATGCTGTTGCTGTTGCTGCTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATGCTGTTGCTGCTGCTGCTGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>(2, 11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>1197</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>GGATGCTGTTGCTGTTGCTGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACTGCTGTTGCTGCTGCTGCTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>(2, 12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>1202</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>TTCCAGGATGCTGTTGCTGTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATGCTGCTGCTGTTGCTGCTGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>(2, 12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>1203</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>TTTCCAGGATGCTGTTGCTGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATTGCTGCTGCTGTTGCTGCTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>(2, 12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>1204</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>CTTTCCAGGATGCTGTTGCTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGTTGCTGCTGCTGTTGCTGCatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>(2, 11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>1206</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>TGCTTTCCAGGATGCTGTTGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACTGTTGCTGCTGCTGTTGCTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>(3, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>1208</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>CTTGCTTTCCAGGATGCTGTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATGCTGTTGCTGCTGCTGTTGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>(3, 9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>1210</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>TGCTTGCTTTCCAGGATGCTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGTTGCTGTTGCTGCTGCTGTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>(5, 11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>1212</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>TTTGCTTGCTTTCCAGGATGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACTGTTGCTGTTGCTGCTGCTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>(0, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>1230</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>TGTTGCTGCTGCTGCTCTTTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATGCTTGCTTTCCAGGATGCTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>(2, 13)</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>1231</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>CTGTTGCTGCTGCTGCTCTTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATTGCTTGCTTTCCAGGATGCatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>(2, 12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>1232</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>GCTGTTGCTGCTGCTGCTCTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATTTGCTTGCTTTCCAGGATGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>(4, 9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>1296</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>AGCTGCTGCATTTGGAGAAGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACTGCTGCTGGAAGACGAGCTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>(2, 12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>1299</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>TGTAGCTGCTGCATTTGGAGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAAAGCTGCTGCTGGAAGACGAatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>(2, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>1301</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>GCTGTAGCTGCTGCATTTGGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAAGAAGCTGCTGCTGGAAGACatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>(2, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>1302</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>TGCTGTAGCTGCTGCATTTGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGAGAAGCTGCTGCTGGAAGAatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>(2, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>1303</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>CTGCTGTAGCTGCTGCATTTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGGAGAAGCTGCTGCTGGAAGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>(2, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>1304</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>GCTGCTGTAGCTGCTGCATTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATGGAGAAGCTGCTGCTGGAAatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>(4, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>1305</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>TGCTGCTGTAGCTGCTGCATTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATTGGAGAAGCTGCTGCTGGAatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>(4, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>1306</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>TTGCTGCTGTAGCTGCTGCATAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATTTGGAGAAGCTGCTGCTGGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>(4, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>1308</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>TGTTGCTGCTGTAGCTGCTGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACATTTGGAGAAGCTGCTGCTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>(4, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>1314</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>AGATGTTGTTGCTGCTGTAGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACTGCTGCATTTGGAGAAGCTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>(0, 11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>1316</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>GCAGATGTTGTTGCTGCTGTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAAGCTGCTGCATTTGGAGAAGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>(4, 9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>1317</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>AGCAGATGTTGTTGCTGCTGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATAGCTGCTGCATTTGGAGAAatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>(5, 9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>1320</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>CTGAGCAGATGTTGTTGCTGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACTGTAGCTGCTGCATTTGGAatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>(4, 9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>1325</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>GAAGGCTGAGCAGATGTTGTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATGCTGCTGTAGCTGCTGCATatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>(2, 13)</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>1328</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>GCTGAAGGCTGAGCAGATGTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATGTTGCTGCTGTAGCTGCTGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>(3, 11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>1329</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>CGCTGAAGGCTGAGCAGATGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATTGTTGCTGCTGTAGCTGCTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>(3, 12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>1407</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>GCAGGACTTAAGCCAGCTTGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAAGGCAGCGACTGGACAGGAAatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>(3, 9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>1418</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>GCTGAATCTCAGCAGGACTTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAAAGCCAGCTTGAGGCAGCGAatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>(4, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>1419</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>TGCTGAATCTCAGCAGGACTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATAAGCCAGCTTGAGGCAGCGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>(4, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>1420</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>TTGCTGAATCTCAGCAGGACTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATTAAGCCAGCTTGAGGCAGCatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>(4, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>1424</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>ATAGTTGCTGAATCTCAGCATAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGGACTTAAGCCAGCTTGAGGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>(4, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>1434</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>ACTTCTTTCCATAGTTGCTGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAAATCTCAGCAGGACTTAAGCatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>(0, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>1436</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>TCACTTCTTTCCATAGTTGCTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATGAATCTCAGCAGGACTTAAatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>(0, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>1440</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>CCAGTCACTTCTTTCCATAGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATTGCTGAATCTCAGCAGGACatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>(0, 11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>1444</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>GACTCCAGTCACTTCTTTCCTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAATAGTTGCTGAATCTCAGCAatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>(3, 12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>1445</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>GGACTCCAGTCACTTCTTTCTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACATAGTTGCTGAATCTCAGCatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>(3, 11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>1446</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>TGGACTCCAGTCACTTCTTTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACCATAGTTGCTGAATCTCAGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>(3, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>1447</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>ATGGACTCCAGTCACTTCTTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATCCATAGTTGCTGAATCTCAatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>(3, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>1450</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>ACTATGGACTCCAGTCACTTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACTTTCCATAGTTGCTGAATCatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>(3, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>1453</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>CATACTATGGACTCCAGTCATAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACTTCTTTCCATAGTTGCTGAatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>(3, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>1455</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>TCCATACTATGGACTCCAGTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACACTTCTTTCCATAGTTGCTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>(3, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>1457</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>CTTCCATACTATGGACTCCATAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGTCACTTCTTTCCATAGTTGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>(3, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>1461</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>TTGTCTTCCATACTATGGACTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATCCAGTCACTTCTTTCCATAatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>(3, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>1465</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>GCCGTTGTCTTCCATACTATTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGGACTCCAGTCACTTCTTTCatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>(0, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>1466</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>TGCCGTTGTCTTCCATACTATAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATGGACTCCAGTCACTTCTTTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>(0, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>1468</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>GATGCCGTTGTCTTCCATACTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATATGGACTCCAGTCACTTCTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>(0, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>1469</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>TGATGCCGTTGTCTTCCATATAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACTATGGACTCCAGTCACTTCatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>(0, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>1470</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>TTGATGCCGTTGTCTTCCATTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAACTATGGACTCCAGTCACTTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>(0, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>1471</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>CTTGATGCCGTTGTCTTCCATAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATACTATGGACTCCAGTCACTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>(0, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>1472</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>GCTTGATGCCGTTGTCTTCCTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAATACTATGGACTCCAGTCACatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>(0, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>1476</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>CCATGCTTGATGCCGTTGTCTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATTCCATACTATGGACTCCAGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>(2, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>1477</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>TCCATGCTTGATGCCGTTGTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACTTCCATACTATGGACTCCAatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>(2, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>1478</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>CTCCATGCTTGATGCCGTTGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATCTTCCATACTATGGACTCCatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>(2, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>1479</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>CCTCCATGCTTGATGCCGTTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGTCTTCCATACTATGGACTCatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>(2, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>1499</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>TGTTAGTCGTGAGGTCTAGCTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACCTCCATGCTTGATGCCGTTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
           <t>(0, 9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>1519</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>GGAGGTAGTCGAGGAGGAATTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATGTTAGTCGTGAGGTCTAGCatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>(0, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>1523</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>TGGAGGAGGTAGTCGAGGAGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGAATTGTTAGTCGTGAGGTCatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>(0, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>1526</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>TGGTGGAGGAGGTAGTCGAGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGAGGAATTGTTAGTCGTGAGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>(0, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>1529</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>ACGTGGTGGAGGAGGTAGTCTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGAGGAGGAATTGTTAGTCGTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>(0, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>1533</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>TTGGACGTGGTGGAGGAGGTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAAGTCGAGGAGGAATTGTTAGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>(0, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>1534</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>TTTGGACGTGGTGGAGGAGGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATAGTCGAGGAGGAATTGTTAatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>(0, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>1535</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>CTTTGGACGTGGTGGAGGAGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGTAGTCGAGGAGGAATTGTTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>(0, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>1537</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>TGCTTTGGACGTGGTGGAGGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAAGGTAGTCGAGGAGGAATTGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>(0, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>1538</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>ATGCTTTGGACGTGGTGGAGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGAGGTAGTCGAGGAGGAATTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>(0, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>1540</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>TGATGCTTTGGACGTGGTGGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAAGGAGGTAGTCGAGGAGGAAatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>(0, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>1541</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>GTGATGCTTTGGACGTGGTGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGAGGAGGTAGTCGAGGAGGAatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>(0, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>1543</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>TGGTGATGCTTTGGACGTGGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATGGAGGAGGTAGTCGAGGAGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>(0, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>1544</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>GTGGTGATGCTTTGGACGTGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGTGGAGGAGGTAGTCGAGGAatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>(0, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>1564</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>TATGGAATGATGTGTGATGGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGTGGTGATGCTTTGGACGTGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>(0, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>1565</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>CTATGGAATGATGTGTGATGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGGTGGTGATGCTTTGGACGTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>(0, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>1620</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>TCCTCATGTGATGAGCTGTCTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACCGCCTTGCATTCAGAACTGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>(4, 9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>1646</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>CATAGAGAGTGTGCGAGGCCTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACCAGTCTCCTCATGTGATGAatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>(0, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>1667</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>GCCACTTGCAGACTCCATGGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACCATAGAGAGTGTGCGAGGCatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>(2, 9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>1669</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>TGGCCACTTGCAGACTCCATTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGGCCATAGAGAGTGTGCGAGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>(2, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>1670</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>CTGGCCACTTGCAGACTCCATAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATGGCCATAGAGAGTGTGCGAatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>(2, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>1677</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>TCACAGCCTGGCCACTTGCATAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGACTCCATGGCCATAGAGAGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>(2, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>1679</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>TTTCACAGCCTGGCCACTTGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACAGACTCCATGGCCATAGAGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>(0, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>1680</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>CTTTCACAGCCTGGCCACTTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGCAGACTCCATGGCCATAGAatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>(0, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>1681</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>GCTTTCACAGCCTGGCCACTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATGCAGACTCCATGGCCATAGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>(3, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>1683</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>ATGCTTTCACAGCCTGGCCATAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACTTGCAGACTCCATGGCCATatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>(3, 9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>1684</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>TATGCTTTCACAGCCTGGCCTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAACTTGCAGACTCCATGGCCAatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>(3, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>1685</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>ATATGCTTTCACAGCCTGGCTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACACTTGCAGACTCCATGGCCatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>(3, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>1686</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>CATATGCTTTCACAGCCTGGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACCACTTGCAGACTCCATGGCatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>(3, 9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>1688</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>CACATATGCTTTCACAGCCTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGGCCACTTGCAGACTCCATGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>(3, 9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>1748</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>TGCTTCGGTCATCCAATGCATAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATGCTCATTGTTAAGGTGCTTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>(2, 11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>1749</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>GTGCTTCGGTCATCCAATGCTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAATGCTCATTGTTAAGGTGCTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>(2, 12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>1751</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>CAGTGCTTCGGTCATCCAATTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGCATGCTCATTGTTAAGGTGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>(2, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>1794</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>ATTTCTAACTGCTGTACCACTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACTGCATTTGCACTCGACATTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>(2, 9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>1796</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>GTATTTCTAACTGCTGTACCTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAACCTGCATTTGCACTCGACAatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>(2, 9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>1800</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>AGCTGTATTTCTAACTGCTGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATACCACCTGCATTTGCACTCatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>(5, 9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>1812</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>CGTTCCTTAGAAAGCTGTATTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATTCTAACTGCTGTACCACCTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>(0, 9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>1813</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>GCGTTCCTTAGAAAGCTGTATAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATTTCTAACTGCTGTACCACCatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>(5, 9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>1814</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>CGCGTTCCTTAGAAAGCTGTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAATTTCTAACTGCTGTACCACatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>(5, 9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>1816</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>TTCGCGTTCCTTAGAAAGCTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGTATTTCTAACTGCTGTACCatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>(5, 9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>1836</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>GTCATCATCGCTTGAAGACGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATTCGCGTTCCTTAGAAAGCTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>(6, 13)</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>1915</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>CTTCGACATGGTGACACTAGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAACACCAGATTTAGAGGTTTGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>(2, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>1922</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>GCATGTTCTTCGACATGGTGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAACACTAGACACCAGATTTAGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>(5, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>1928</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>TCTCCAGCATGTTCTTCGACTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAATGGTGACACTAGACACCAGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>(0, 13)</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>1932</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>GATGTCTCCAGCATGTTCTTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACGACATGGTGACACTAGACAatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>(0, 9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>1933</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>GGATGTCTCCAGCATGTTCTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATCGACATGGTGACACTAGACatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>(3, 9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>2172</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>TCCATGATAGCCTGCCTTATTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGAGTGTTGCATAAGTGAAGGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>(0, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>2178</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>GATGACTCCATGATAGCCTGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACCTTATGAGTGTTGCATAAGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>(3, 13)</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>2179</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>AGATGACTCCATGATAGCCTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGCCTTATGAGTGTTGCATAAatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>(3, 12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>2181</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>TCAGATGACTCCATGATAGCTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACTGCCTTATGAGTGTTGCATatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>(3, 11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>2182</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>GTCAGATGACTCCATGATAGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACCTGCCTTATGAGTGTTGCAatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>(3, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>2187</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>TGCCTGTCAGATGACTCCATTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGATAGCCTGCCTTATGAGTGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>(3, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>2194</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>TGTTAACTGCCTGTCAGATGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAACTCCATGATAGCCTGCCTTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>(3, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>2195</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>GTGTTAACTGCCTGTCAGATTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGACTCCATGATAGCCTGCCTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>(3, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>2243</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>GCCTGAAGTAAGCAAATGTCTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACGTGTAAACCAGCTGTAAATatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>(0, 11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>2247</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>TTCCGCCTGAAGTAAGCAAATAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATGTCCGTGTAAACCAGCTGTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>(0, 9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>2266</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>ATTCTTCCAAGTGGCGGCATTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATCCGCCTGAAGTAAGCAAATatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>(4, 9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>2284</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>AAGATTATGACGCACTGCATTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATCTTCCAAGTGGCGGCATTCatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>(0, 11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>2286</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>CTAAGATTATGACGCACTGCTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAATTCTTCCAAGTGGCGGCATatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>(0, 9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>2287</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>GCTAAGATTATGACGCACTGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACATTCTTCCAAGTGGCGGCAatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>(0, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>2289</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>AGGCTAAGATTATGACGCACTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATGCATTCTTCCAAGTGGCGGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>(0, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>2360</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>TCTGGTATTCGACTTCGTCCTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAACAGTCCACACTGCTCCTTTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>(2, 11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>2361</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>TTCTGGTATTCGACTTCGTCTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACACAGTCCACACTGCTCCTTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>(2, 11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>2362</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>CTTCTGGTATTCGACTTCGTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACCACAGTCCACACTGCTCCTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>(2, 11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>2364</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>CGCTTCTGGTATTCGACTTCTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGTCCACAGTCCACACTGCTCatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>(0, 11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>2365</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>TCGCTTCTGGTATTCGACTTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACGTCCACAGTCCACACTGCTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>(0, 11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>2366</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>TTCGCTTCTGGTATTCGACTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATCGTCCACAGTCCACACTGCatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>(0, 11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>2367</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>CTTCGCTTCTGGTATTCGACTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATTCGTCCACAGTCCACACTGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>(0, 11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>2369</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>ACCTTCGCTTCTGGTATTCGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAACTTCGTCCACAGTCCACACatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>(0, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>2372</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>GTGACCTTCGCTTCTGGTATTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATCGACTTCGTCCACAGTCCAatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>(3, 9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>2373</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>TGTGACCTTCGCTTCTGGTATAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATTCGACTTCGTCCACAGTCCatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>(3, 9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>2394</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>GTTGGACTTCCTGTTATCTTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATTGTGACCTTCGCTTCTGGTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>(2, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>2470</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>TTCTGCCAAGGCAGCCTGCATAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGACTGGCATTTAGAGCTGCTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>(4, 11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>2473</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>GCTTTCTGCCAAGGCAGCCTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGCAGACTGGCATTTAGAGCTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>(4, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>2479</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>CAAGCTGCTTTCTGCCAAGGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACAGCCTGCAGACTGGCATTTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>(2, 11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>2492</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>TACTTAGCAAAGGCAAGCTGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACTTTCTGCCAAGGCAGCCTGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>(3, 11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>2514</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>GCGTTATTGATCAGTCCAGGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGTTACTTAGCAAAGGCAAGCatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>(0, 9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>2579</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>TGCTGTCGATGTGGTCCAGGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGAACCATTGAGGTCTTCGTGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>(0, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>2665</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>TTCATCCTCTGCAATCACGGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGTTCTTCCTTGACATGGATTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>(0, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>2688</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>GTCACTAATGACATTGGACATAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGTCTTCATCCTCTGCAATCAatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>(4, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>2691</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>GTTGTCACTAATGACATTGGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAACAGTCTTCATCCTCTGCAAatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>(4, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>2694</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>GCTGTTGTCACTAATGACATTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATGGACAGTCTTCATCCTCTGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>(4, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>2695</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>GGCTGTTGTCACTAATGACATAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATTGGACAGTCTTCATCCTCTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>(4, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>2698</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>ATTGGCTGTTGTCACTAATGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAACATTGGACAGTCTTCATCCatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>(0, 10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>2700</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>TGATTGGCTGTTGTCACTAATAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATGACATTGGACAGTCTTCATatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>(0, 12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>2715</v>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>TCTAACTCCGGACTGTGATTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGGCTGTTGTCACTAATGACAatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>(0, 12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>2719</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>ATCTTCTAACTCCGGACTGTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGATTGGCTGTTGTCACTAATatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>(0, 9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>2720</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>CATCTTCTAACTCCGGACTGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATGATTGGCTGTTGTCACTAAatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>(0, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>2722</v>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>GTCATCTTCTAACTCCGGACTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATGTGATTGGCTGTTGTCACTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>(0, 12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>2725</v>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>TCTGTCATCTTCTAACTCCGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGACTGTGATTGGCTGTTGTCatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>(0, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>2726</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>CTCTGTCATCTTCTAACTCCTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGGACTGTGATTGGCTGTTGTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>(0, 9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>2732</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>CAATCTCTCTGTCATCTTCTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAAACTCCGGACTGTGATTGGCatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>(0, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>2735</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>CCTCAATCTCTCTGTCATCTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATCTAACTCCGGACTGTGATTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>(0, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>2736</v>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>TCCTCAATCTCTCTGTCATCTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATTCTAACTCCGGACTGTGATatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>(0, 9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>2737</v>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>TTCCTCAATCTCTCTGTCATTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACTTCTAACTCCGGACTGTGAatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>(0, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>2738</v>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>CTTCCTCAATCTCTCTGTCATAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATCTTCTAACTCCGGACTGTGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>(0, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>2739</v>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>TCTTCCTCAATCTCTCTGTCTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAATCTTCTAACTCCGGACTGTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>(0, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>2740</v>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>CTCTTCCTCAATCTCTCTGTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACATCTTCTAACTCCGGACTGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>(0, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>2741</v>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>GCTCTTCCTCAATCTCTCTGTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATCATCTTCTAACTCCGGACTatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>(0, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>2742</v>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>GGCTCTTCCTCAATCTCTCTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTAGTCATCTTCTAACTCCGGACatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>(0, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>2744</v>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>AAGGCTCTTCCTCAATCTCTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACTGTCATCTTCTAACTCCGGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>(3, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>2745</v>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>AAAGGCTCTTCCTCAATCTCTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTATCTGTCATCTTCTAACTCCGatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>(3, 7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>foxp2</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>NM_053242.4</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>2746</v>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>TAAAGGCTCTTCCTCAATCTTAATGTTATCTT</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>/5Phos/ACATTACTCTGTCATCTTCTAACTCCatttaTTACTATCTCAATAAATATattaAAGATA</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>(3, 7)</t>
         </is>
       </c>
     </row>
